--- a/Assets/Resources/Excels/JobSheets.xlsx
+++ b/Assets/Resources/Excels/JobSheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\sparta_team\3D_TEAM12\Assets\Resources\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E955FA-3E8A-4C07-A1D7-53F1376703D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270C2846-CEF9-434C-A58C-85D75D27C2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JobList" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,6 +145,10 @@
   </si>
   <si>
     <t>/Textures/Job/mage_photo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cooltimeReduction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,7 +476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -578,10 +582,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF733066-6232-4AD0-AEAF-1F89F994A461}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -592,7 +596,7 @@
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -620,8 +624,11 @@
       <c r="I1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>11</v>
       </c>
@@ -649,8 +656,11 @@
       <c r="I2">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>12</v>
       </c>
@@ -678,8 +688,11 @@
       <c r="I3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>13</v>
       </c>
@@ -707,8 +720,11 @@
       <c r="I4">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>14</v>
       </c>
@@ -728,13 +744,16 @@
         <v>10</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
         <v>3</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Excels/JobSheets.xlsx
+++ b/Assets/Resources/Excels/JobSheets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\sparta_team\3D_TEAM12\Assets\Resources\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ajin\Desktop\Unity\Unity_project\3D_ Team12\3D_TEAM12\Assets\Resources\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270C2846-CEF9-434C-A58C-85D75D27C2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2733316A-B29A-45E5-83FD-C2D83A1B492E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18288" yWindow="468" windowWidth="15300" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JobList" sheetId="1" r:id="rId1"/>
@@ -476,20 +476,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.4140625" customWidth="1"/>
-    <col min="3" max="3" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.83203125" customWidth="1"/>
+    <col min="2" max="2" width="19.3984375" customWidth="1"/>
+    <col min="3" max="3" width="33.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -506,7 +506,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>11</v>
       </c>
@@ -523,7 +523,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>12</v>
       </c>
@@ -540,7 +540,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>13</v>
       </c>
@@ -557,7 +557,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>14</v>
       </c>
@@ -584,19 +584,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF733066-6232-4AD0-AEAF-1F89F994A461}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.58203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -628,7 +628,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>11</v>
       </c>
@@ -660,7 +660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>12</v>
       </c>
@@ -692,7 +692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>13</v>
       </c>
@@ -724,7 +724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>14</v>
       </c>

--- a/Assets/Resources/Excels/JobSheets.xlsx
+++ b/Assets/Resources/Excels/JobSheets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ajin\Desktop\Unity\Unity_project\3D_ Team12\3D_TEAM12\Assets\Resources\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\sparta_team\3D_TEAM12\Assets\Resources\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2733316A-B29A-45E5-83FD-C2D83A1B492E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0BE22A-689E-4D97-BE51-7EA528618D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18288" yWindow="468" windowWidth="15300" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53160" yWindow="2535" windowWidth="20520" windowHeight="15285" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JobList" sheetId="1" r:id="rId1"/>
@@ -476,20 +476,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.3984375" customWidth="1"/>
-    <col min="3" max="3" width="33.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.796875" customWidth="1"/>
+    <col min="2" max="2" width="19.4140625" customWidth="1"/>
+    <col min="3" max="3" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -506,7 +506,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>11</v>
       </c>
@@ -523,7 +523,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>12</v>
       </c>
@@ -540,7 +540,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>13</v>
       </c>
@@ -557,7 +557,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>14</v>
       </c>
@@ -584,19 +584,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF733066-6232-4AD0-AEAF-1F89F994A461}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -628,7 +628,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>11</v>
       </c>
@@ -645,7 +645,7 @@
         <v>5</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -660,7 +660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>12</v>
       </c>
@@ -692,7 +692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>13</v>
       </c>
@@ -724,7 +724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>14</v>
       </c>
@@ -747,7 +747,7 @@
         <v>2</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I5">
         <v>3</v>

--- a/Assets/Resources/Excels/JobSheets.xlsx
+++ b/Assets/Resources/Excels/JobSheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\sparta_team\3D_TEAM12\Assets\Resources\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0BE22A-689E-4D97-BE51-7EA528618D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC3E63B-694A-423F-9B39-94553456248B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53160" yWindow="2535" windowWidth="20520" windowHeight="15285" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38685" yWindow="3195" windowWidth="29640" windowHeight="15045" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JobList" sheetId="1" r:id="rId1"/>
@@ -585,7 +585,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -703,10 +703,10 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F4">
         <v>5</v>
